--- a/DateBase/orders/Dang Nguyen_2025-8-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-8-26.xlsx
@@ -1130,6 +1130,9 @@
       <c r="G2" t="str">
         <v>02515105520155201510111054111551510101010101055101555105151515510101555510551060151515101055105101051010108101010666101010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
